--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DeXuat_DieuChinh_NguonVonKhac.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DeXuat_DieuChinh_NguonVonKhac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachVonNam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachVonNam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +486,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -701,41 +707,41 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,15 +1058,15 @@
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1102,54 +1108,54 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="5" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1162,72 +1168,72 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
     </row>
     <row r="7" spans="1:34" s="29" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45" t="s">
         <v>40</v>
       </c>
       <c r="V7" s="28"/>
@@ -1245,35 +1251,35 @@
       <c r="AH7" s="28"/>
     </row>
     <row r="8" spans="1:34" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
@@ -1289,39 +1295,39 @@
       <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34" s="29" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
       <c r="O9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="P9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="30" t="s">
         <v>69</v>
       </c>
       <c r="T9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="51"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
       <c r="X9" s="28"/>
@@ -1553,18 +1559,18 @@
     <row r="13" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:34" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
@@ -1619,55 +1625,55 @@
     <row r="22" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:20" s="23" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="43"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
     </row>
     <row r="24" spans="2:20" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44" t="s">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
@@ -1711,29 +1717,29 @@
     </row>
     <row r="27" spans="2:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
     </row>
     <row r="28" spans="2:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
@@ -1778,52 +1784,52 @@
     </row>
     <row r="30" spans="2:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43"/>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
-      <c r="N30" s="45" t="s">
+      <c r="N30" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
       <c r="T30" s="42"/>
     </row>
     <row r="31" spans="2:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="43"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
       <c r="T31" s="42"/>
     </row>
     <row r="32" spans="2:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,27 +1855,27 @@
     </row>
     <row r="33" spans="2:20" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="43"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
-      <c r="N33" s="45" t="s">
+      <c r="N33" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
     </row>
     <row r="34" spans="2:20" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C34" s="41"/>
@@ -1988,17 +1994,17 @@
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
       <c r="T41" s="42"/>
     </row>
     <row r="42" spans="2:20" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2008,17 +2014,17 @@
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
       <c r="T42" s="42"/>
     </row>
     <row r="43" spans="2:20" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,17 +2034,17 @@
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
     </row>
     <row r="44" spans="2:20" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="42"/>
@@ -2047,17 +2053,17 @@
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
     </row>
     <row r="45" spans="2:20" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C45" s="41"/>
@@ -2223,23 +2229,19 @@
     <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I43:M44"/>
+    <mergeCell ref="I41:M42"/>
+    <mergeCell ref="N41:S42"/>
+    <mergeCell ref="N43:S44"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A5:U5"/>
     <mergeCell ref="A2:G2"/>
@@ -2256,19 +2258,23 @@
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="A4:U4"/>
-    <mergeCell ref="I43:M44"/>
-    <mergeCell ref="I41:M42"/>
-    <mergeCell ref="N41:S42"/>
-    <mergeCell ref="N43:S44"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="N30:S30"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
